--- a/Excel/F1 score images threshold selection c.xlsx
+++ b/Excel/F1 score images threshold selection c.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abroggi/Desktop/Spring 2024 work.nosync/Summer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abroggi/Desktop/Spring 2024 work.nosync/Summer/HandWritingTracker/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D13457-B601-CD48-8D47-20CF6211F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27500E5-C49B-DA46-B179-A23FF3ED192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{13A9CE2A-3775-CB42-99B2-6E28B7933004}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{13A9CE2A-3775-CB42-99B2-6E28B7933004}"/>
   </bookViews>
   <sheets>
     <sheet name="MNIST" sheetId="1" r:id="rId1"/>
     <sheet name="Food 101" sheetId="4" r:id="rId2"/>
     <sheet name="Covertype" sheetId="7" r:id="rId3"/>
     <sheet name="FasionMNIST" sheetId="8" r:id="rId4"/>
+    <sheet name="CICIDS" sheetId="9" r:id="rId5"/>
+    <sheet name="CICIDS (2)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>SoftMax</t>
   </si>
@@ -69,6 +71,9 @@
   </si>
   <si>
     <t>Thresh</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -2003,6 +2008,1114 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DD8-FB4C-A6DC-300A02CD3175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="689618303"/>
+        <c:axId val="689960655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="689618303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689960655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="689960655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689618303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63869049563825264"/>
+          <c:y val="7.9281824146981622E-2"/>
+          <c:w val="0.30032154976443842"/>
+          <c:h val="0.22400599261375514"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CICIDS!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Knowns Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1300FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CICIDS!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SoftMax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CICIDS!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36520000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F11-D141-A09C-87BEB076699F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CICIDS!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unknowns Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CICIDS!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SoftMax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CICIDS!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F11-D141-A09C-87BEB076699F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CICIDS!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CICIDS!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SoftMax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CICIDS!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36080000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F11-D141-A09C-87BEB076699F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="689618303"/>
+        <c:axId val="689960655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="689618303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689960655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="689960655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689618303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63869049563825264"/>
+          <c:y val="7.9281824146981622E-2"/>
+          <c:w val="0.30032154976443842"/>
+          <c:h val="0.22400599261375514"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CICIDS (2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Knowns Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1300FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CICIDS (2)'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SoftMax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CICIDS (2)'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36680000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25A1-DF4C-83E5-8DF873A77597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CICIDS (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unknowns Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CICIDS (2)'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SoftMax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CICIDS (2)'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73680000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25A1-DF4C-83E5-8DF873A77597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CICIDS (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CICIDS (2)'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SoftMax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VarMax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CICIDS (2)'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25A1-DF4C-83E5-8DF873A77597}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2504,6 +3617,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
@@ -4005,6 +5198,1006 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4674,6 +6867,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68B7D2F-40E5-8D4F-A38B-E9CA19A840E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B507C53-55B3-B64D-A0C4-AA18FCE45E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4994,7 +7273,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5287,7 +7566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC4890E-9F82-F540-942C-80362C47A984}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5373,4 +7652,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A2104E-DE50-2E41-BC50-CA67525A52EE}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.3765</v>
+      </c>
+      <c r="D2">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.36080000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.478</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C27D73E-9F26-6848-B2B2-A02A67E7670A}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.3654</v>
+      </c>
+      <c r="D4">
+        <v>0.41610000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="D5">
+        <v>-2.262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/F1 score images threshold selection c.xlsx
+++ b/Excel/F1 score images threshold selection c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abroggi/Desktop/Spring 2024 work.nosync/Summer/HandWritingTracker/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27500E5-C49B-DA46-B179-A23FF3ED192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20759F17-F7C4-9747-A8E2-DD9DBD17DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{13A9CE2A-3775-CB42-99B2-6E28B7933004}"/>
   </bookViews>
